--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/69.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/69.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1889215107394698</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.566037156196412</v>
+        <v>-1.564814930348722</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009275021812424528</v>
+        <v>0.0147038137617906</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1650554659672331</v>
+        <v>-0.1379398385645862</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.182180865006587</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.578991333564717</v>
+        <v>-1.56733021290456</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01910162318670472</v>
+        <v>0.0254512163220317</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1310409127559253</v>
+        <v>-0.09955266023430502</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1806721319168716</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.645144996204302</v>
+        <v>-1.644164382291732</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03774879943643352</v>
+        <v>-0.03357764876498669</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1380138174632873</v>
+        <v>-0.1061603925055253</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1792309797178678</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.77620097628204</v>
+        <v>-1.783835756029909</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07933910667856159</v>
+        <v>-0.08824805490512348</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1458776169933056</v>
+        <v>-0.1126579434382546</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1708727038188133</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.800704518952889</v>
+        <v>-1.838625787623265</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09626138625166529</v>
+        <v>-0.1163852207174946</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1426618959284883</v>
+        <v>-0.1112098458466579</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1524667565579116</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.623662783236791</v>
+        <v>-1.659596065756964</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0779901722916069</v>
+        <v>-0.1232463700672443</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1339607182259381</v>
+        <v>-0.1097586002168187</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1240652118907876</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.322023267897651</v>
+        <v>-1.329591938842426</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08755076443438728</v>
+        <v>-0.1306694442432983</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09942988674284357</v>
+        <v>-0.06706805360890143</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08754032488466172</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8433829413395678</v>
+        <v>-0.8188164379038673</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01416684496110661</v>
+        <v>-0.07265424747039757</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09849019732742706</v>
+        <v>-0.07503101634356162</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04494032213798412</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3366865109538602</v>
+        <v>-0.2841426046466006</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.007365508337966343</v>
+        <v>-0.08365191907092548</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03246639126534841</v>
+        <v>0.002694047866266353</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.001908481983586143</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2104173513043181</v>
+        <v>0.2917500673401673</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04174208594717337</v>
+        <v>-0.1064736223106642</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04128742270143792</v>
+        <v>0.07521855289931684</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05270137639851</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8399903714039246</v>
+        <v>0.9465073933805848</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.09360601599403102</v>
+        <v>-0.1917476822262502</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1211468568397496</v>
+        <v>0.1414674436957415</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1074105374081373</v>
       </c>
       <c r="E13" t="n">
-        <v>1.490682006054022</v>
+        <v>1.633739881931678</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2419699103295913</v>
+        <v>-0.3525479016392072</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2236926285733681</v>
+        <v>0.2465568303293819</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1653648674442179</v>
       </c>
       <c r="E14" t="n">
-        <v>2.144457144162748</v>
+        <v>2.298621298960302</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.476484593231302</v>
+        <v>-0.5920947236717162</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3356951071877612</v>
+        <v>0.3582004325841184</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2283942674757979</v>
       </c>
       <c r="E15" t="n">
-        <v>2.832360164859516</v>
+        <v>3.004647575819725</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.76735230871382</v>
+        <v>-0.8906176811506802</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4735288136018198</v>
+        <v>0.5030637083939059</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2978989339374757</v>
       </c>
       <c r="E16" t="n">
-        <v>3.50165985356163</v>
+        <v>3.67999779402412</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.004512130748877</v>
+        <v>-1.127904998734562</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6356590791722758</v>
+        <v>0.663870223883348</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.374315228802694</v>
       </c>
       <c r="E17" t="n">
-        <v>4.147566470082974</v>
+        <v>4.339406346567981</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.277229044734116</v>
+        <v>-1.422093107553464</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8072539217191129</v>
+        <v>0.8341696486933546</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4582454693667911</v>
       </c>
       <c r="E18" t="n">
-        <v>4.784487011440812</v>
+        <v>5.005438371574275</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.494548355745177</v>
+        <v>-1.633675905876945</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9624034124866004</v>
+        <v>0.9901990161496492</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5474566603110474</v>
       </c>
       <c r="E19" t="n">
-        <v>5.27193082694433</v>
+        <v>5.485893542179218</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.710698170549112</v>
+        <v>-1.866454445687861</v>
       </c>
       <c r="G19" t="n">
-        <v>1.131736389556128</v>
+        <v>1.157814738357838</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6379034042420986</v>
       </c>
       <c r="E20" t="n">
-        <v>5.684004310843487</v>
+        <v>5.918822779435608</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.861323930361982</v>
+        <v>-2.017820781497302</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25963803531478</v>
+        <v>1.285979245309747</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7266155428793023</v>
       </c>
       <c r="E21" t="n">
-        <v>5.991556629011792</v>
+        <v>6.212194759340115</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.063745937399493</v>
+        <v>-2.215135096486192</v>
       </c>
       <c r="G21" t="n">
-        <v>1.378972294996191</v>
+        <v>1.402522769089092</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8097044554549597</v>
       </c>
       <c r="E22" t="n">
-        <v>6.313662327975643</v>
+        <v>6.538709285862731</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.172603525809527</v>
+        <v>-2.316220965484805</v>
       </c>
       <c r="G22" t="n">
-        <v>1.479289255654048</v>
+        <v>1.498426180130822</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8830520536258509</v>
       </c>
       <c r="E23" t="n">
-        <v>6.447019524008723</v>
+        <v>6.66706897118568</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.266413491419927</v>
+        <v>-2.406982056057245</v>
       </c>
       <c r="G23" t="n">
-        <v>1.583586910669674</v>
+        <v>1.599610425324515</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9440191965707834</v>
       </c>
       <c r="E24" t="n">
-        <v>6.59521027624094</v>
+        <v>6.80082596807557</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.331152110869463</v>
+        <v>-2.460512085343999</v>
       </c>
       <c r="G24" t="n">
-        <v>1.591504226849817</v>
+        <v>1.607148402896424</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9897211540863521</v>
       </c>
       <c r="E25" t="n">
-        <v>6.676177819840647</v>
+        <v>6.88366029835314</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.336600578057845</v>
+        <v>-2.471220924435769</v>
       </c>
       <c r="G25" t="n">
-        <v>1.641312487924256</v>
+        <v>1.654214722661557</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.018384582306272</v>
       </c>
       <c r="E26" t="n">
-        <v>6.693713966871059</v>
+        <v>6.874058781713206</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.347846944679539</v>
+        <v>-2.498050080358339</v>
       </c>
       <c r="G26" t="n">
-        <v>1.687180979138079</v>
+        <v>1.677799825175127</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.030252642027194</v>
       </c>
       <c r="E27" t="n">
-        <v>6.647053744039221</v>
+        <v>6.809037625831396</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.275551459428637</v>
+        <v>-2.403085571722465</v>
       </c>
       <c r="G27" t="n">
-        <v>1.644189794877993</v>
+        <v>1.640826116015774</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.026536358900662</v>
       </c>
       <c r="E28" t="n">
-        <v>6.547755173752845</v>
+        <v>6.683402567607417</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233181225711905</v>
+        <v>-2.332994500250945</v>
       </c>
       <c r="G28" t="n">
-        <v>1.607340433229223</v>
+        <v>1.584082726692884</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.009125124884208</v>
       </c>
       <c r="E29" t="n">
-        <v>6.413787258300701</v>
+        <v>6.523628608661548</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.151817816303191</v>
+        <v>-2.253052430108766</v>
       </c>
       <c r="G29" t="n">
-        <v>1.564525539110723</v>
+        <v>1.532058246695654</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9807271029850639</v>
       </c>
       <c r="E30" t="n">
-        <v>6.255514913596553</v>
+        <v>6.33768028574757</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.121532901399805</v>
+        <v>-2.20952922738568</v>
       </c>
       <c r="G30" t="n">
-        <v>1.494643812182336</v>
+        <v>1.465064844854854</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9437562499516308</v>
       </c>
       <c r="E31" t="n">
-        <v>6.001738958707486</v>
+        <v>6.058439849514101</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.977214236205987</v>
+        <v>-2.026120584323921</v>
       </c>
       <c r="G31" t="n">
-        <v>1.418266108340342</v>
+        <v>1.386834520507088</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9011433817927065</v>
       </c>
       <c r="E32" t="n">
-        <v>5.76902023162318</v>
+        <v>5.798226156418914</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.868108739784348</v>
+        <v>-1.902718272223508</v>
       </c>
       <c r="G32" t="n">
-        <v>1.349505083026321</v>
+        <v>1.302237288813662</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8551930900720808</v>
       </c>
       <c r="E33" t="n">
-        <v>5.439859778957659</v>
+        <v>5.44112056827382</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.8141505772966</v>
+        <v>-1.835850004902851</v>
       </c>
       <c r="G33" t="n">
-        <v>1.27693178340051</v>
+        <v>1.223622903800299</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8078006135457887</v>
       </c>
       <c r="E34" t="n">
-        <v>5.159985013018304</v>
+        <v>5.132392457821903</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.735436242069034</v>
+        <v>-1.757659818042679</v>
       </c>
       <c r="G34" t="n">
-        <v>1.167194318301669</v>
+        <v>1.10697864279719</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7608847122969264</v>
       </c>
       <c r="E35" t="n">
-        <v>4.783065672174278</v>
+        <v>4.73193995709531</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.691640734037964</v>
+        <v>-1.707316390466998</v>
       </c>
       <c r="G35" t="n">
-        <v>1.090515976807506</v>
+        <v>1.032052184585035</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7159531838140837</v>
       </c>
       <c r="E36" t="n">
-        <v>4.33726410654389</v>
+        <v>4.270538287953712</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.625548458144109</v>
+        <v>-1.625705073046678</v>
       </c>
       <c r="G36" t="n">
-        <v>1.030866948186695</v>
+        <v>0.9656868163736336</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6741262227261358</v>
       </c>
       <c r="E37" t="n">
-        <v>3.98622478809229</v>
+        <v>3.896285335501168</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.59046829398768</v>
+        <v>-1.589812715023659</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9488841622537488</v>
+        <v>0.8867167030388569</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6365391211697951</v>
       </c>
       <c r="E38" t="n">
-        <v>3.659395457745415</v>
+        <v>3.548759227728311</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.504498517620479</v>
+        <v>-1.501464595764172</v>
       </c>
       <c r="G38" t="n">
-        <v>0.860188184768455</v>
+        <v>0.792387311118428</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6029744699227835</v>
       </c>
       <c r="E39" t="n">
-        <v>3.251678858774019</v>
+        <v>3.122264580639798</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.480811103864025</v>
+        <v>-1.474527619531793</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7898688805243468</v>
+        <v>0.7279595604453482</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5721684766058849</v>
       </c>
       <c r="E40" t="n">
-        <v>2.861159992721954</v>
+        <v>2.712821282692335</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.473783108487418</v>
+        <v>-1.466079858907772</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7203255677070398</v>
+        <v>0.6562724335848297</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5429556711637761</v>
       </c>
       <c r="E41" t="n">
-        <v>2.513849525568715</v>
+        <v>2.365883858070844</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.44656989189925</v>
+        <v>-1.431874062373226</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6695618770259714</v>
+        <v>0.6033633548414283</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5134631647727742</v>
       </c>
       <c r="E42" t="n">
-        <v>2.147694901495264</v>
+        <v>1.994557007164799</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.414684986559062</v>
+        <v>-1.398363195280735</v>
       </c>
       <c r="G42" t="n">
-        <v>0.60302651474947</v>
+        <v>0.5389985649332006</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4821398314605439</v>
       </c>
       <c r="E43" t="n">
-        <v>1.898537118708093</v>
+        <v>1.75342514787714</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.383498945708732</v>
+        <v>-1.374601015616019</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5274468386019748</v>
+        <v>0.4623674440126766</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4487743516226791</v>
       </c>
       <c r="E44" t="n">
-        <v>1.667342042133205</v>
+        <v>1.538063129643416</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.38003531663231</v>
+        <v>-1.370718697453331</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4526935224931626</v>
+        <v>0.3951316432271965</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4125623672701003</v>
       </c>
       <c r="E45" t="n">
-        <v>1.447292594956248</v>
+        <v>1.316195690381356</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.307988526402574</v>
+        <v>-1.299218878868247</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3989675278258062</v>
+        <v>0.335333082789862</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3739029241617007</v>
       </c>
       <c r="E46" t="n">
-        <v>1.223160142178636</v>
+        <v>1.092074255737594</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.244904988059085</v>
+        <v>-1.239060655061695</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3530187616367965</v>
+        <v>0.2972245058440511</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3339278315025295</v>
       </c>
       <c r="E47" t="n">
-        <v>1.090470330252988</v>
+        <v>0.9627009021005263</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.196337054052231</v>
+        <v>-1.184396544998044</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2809365559768315</v>
+        <v>0.2215031679756389</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2938020984711623</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9047156116909302</v>
+        <v>0.7979703569416815</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.118870915987857</v>
+        <v>-1.109545639703711</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2100081063327799</v>
+        <v>0.1626742033170256</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2549396864300311</v>
       </c>
       <c r="E49" t="n">
-        <v>0.741903795840951</v>
+        <v>0.6322812341379646</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.053229596572254</v>
+        <v>-1.051135364131364</v>
       </c>
       <c r="G49" t="n">
-        <v>0.165439754913151</v>
+        <v>0.1157448232154457</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2192140510194783</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6573726729506189</v>
+        <v>0.5519275579955645</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9900870325117165</v>
+        <v>-0.9948783467169557</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1400524005056922</v>
+        <v>0.1014842099764614</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1873434674359403</v>
       </c>
       <c r="E51" t="n">
-        <v>0.53416947426905</v>
+        <v>0.4323288631017743</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9684222333261338</v>
+        <v>-0.9751126016012224</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1207753883271226</v>
+        <v>0.09199917075150348</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1598807948892318</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3735235087299806</v>
+        <v>0.2975015332094</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.955891467101459</v>
+        <v>-0.9750889913144029</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06850536134696941</v>
+        <v>0.03464821004779162</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1369630388068566</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3145214019680243</v>
+        <v>0.2289876288974236</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9426649844251693</v>
+        <v>-0.9405715389938394</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06542815396482657</v>
+        <v>0.04006283582506598</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1176411234213093</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1864292998956956</v>
+        <v>0.131283539980926</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8997367609299357</v>
+        <v>-0.9109398420257934</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02398265648185816</v>
+        <v>0.002036107873562665</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1008921847062941</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1132925014244592</v>
+        <v>0.08187822780154005</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9022567655431381</v>
+        <v>-0.92337616710319</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009293910041880137</v>
+        <v>-0.01291077770230867</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.08580602376743608</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03097759745691841</v>
+        <v>0.00655511677081694</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9055425304588532</v>
+        <v>-0.9345013342525433</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02669131510929619</v>
+        <v>-0.04531196131428333</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.07099335721806919</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07208760058672932</v>
+        <v>-0.08808593093562951</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9267673913000324</v>
+        <v>-0.9645438502112489</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06672806547870049</v>
+        <v>-0.08180244660339717</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05567035434693113</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1172005626223283</v>
+        <v>-0.1259426648220324</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9207026956256609</v>
+        <v>-0.9645438502112489</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09462755440375517</v>
+        <v>-0.1075518254087551</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.03939224101881065</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1954544972569133</v>
+        <v>-0.1970253683399714</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9309290978567514</v>
+        <v>-0.9703220744055437</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1114884472311281</v>
+        <v>-0.1185778293534664</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02137185101423222</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2798392363689645</v>
+        <v>-0.2723469053515732</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9551831584968737</v>
+        <v>-1.008817860055195</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.122972490740138</v>
+        <v>-0.1265817165852804</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.002160702489414676</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3638477849110248</v>
+        <v>-0.3462911756320369</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9365247358329754</v>
+        <v>-0.9890599850350678</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1587279090996044</v>
+        <v>-0.163117848428912</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01802747101506105</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4850315170599648</v>
+        <v>-0.472228445527305</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.959139455558263</v>
+        <v>-1.024299912132308</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1798465236500957</v>
+        <v>-0.1861079717146298</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03873084420511229</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5328218856208963</v>
+        <v>-0.5280651998363256</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9774602511206424</v>
+        <v>-1.056730215098027</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2119187372657185</v>
+        <v>-0.2201665974613341</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.05919502179051996</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6747905402666118</v>
+        <v>-0.6670274779603568</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.013364414287072</v>
+        <v>-1.097884519043555</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2584435944531243</v>
+        <v>-0.2697765321264892</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.0785906537086815</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8350201777480972</v>
+        <v>-0.8262883066726817</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.071024669748119</v>
+        <v>-1.163019791311659</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3170883988745453</v>
+        <v>-0.3325657288942949</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.09575331632080124</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9411806843937828</v>
+        <v>-0.9370669854202635</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.09770980292109</v>
+        <v>-1.19230677809214</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3517136715049178</v>
+        <v>-0.3642475857678352</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1091922757049327</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.018769595949618</v>
+        <v>-1.026669597919426</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.1502906986777</v>
+        <v>-1.253466078059839</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4033320545688526</v>
+        <v>-0.4292781857643731</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1167613967292978</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.105693227904327</v>
+        <v>-1.131596860583573</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.201255863806295</v>
+        <v>-1.317708881486166</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4316313443507176</v>
+        <v>-0.4430351128845411</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1162366376023835</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.246238969264387</v>
+        <v>-1.295027265948223</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.255768081024742</v>
+        <v>-1.375516307735055</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4619312124357559</v>
+        <v>-0.4767584725584084</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1064554443457737</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.297151404752419</v>
+        <v>-1.353954606801918</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.334364364818209</v>
+        <v>-1.466513501175691</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4937736192596688</v>
+        <v>-0.5159389565258251</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.08661555168427093</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.349091674726659</v>
+        <v>-1.413269943369013</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.360632382924036</v>
+        <v>-1.508269080425555</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5439879772674033</v>
+        <v>-0.5740659086563382</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.05694211281103882</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.419122146462009</v>
+        <v>-1.485869214310325</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.409173558605828</v>
+        <v>-1.553973086641203</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.527805486681311</v>
+        <v>-0.5685269353684811</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.01884008058296696</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.445919822002153</v>
+        <v>-1.543361049725393</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.417330125692408</v>
+        <v>-1.559775708131878</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5519997345948239</v>
+        <v>-0.5981861776711499</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.02618312635323704</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.487067829871196</v>
+        <v>-1.593449486203424</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.451367502180975</v>
+        <v>-1.591174241563584</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5590544882964935</v>
+        <v>-0.6035976554101816</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.07637771847104774</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.474988020124774</v>
+        <v>-1.593773734142412</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.44620629348223</v>
+        <v>-1.58018129202042</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5777144849795132</v>
+        <v>-0.6229014259138133</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1294329435838911</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.390981045601835</v>
+        <v>-1.505993048776154</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.501171828207611</v>
+        <v>-1.646798503291229</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5593598480060259</v>
+        <v>-0.6054392577821035</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1839193991307481</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.3436707528729</v>
+        <v>-1.44132998224444</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.510691495853237</v>
+        <v>-1.654301065432908</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5356330837715393</v>
+        <v>-0.5809978888665464</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2390284527352427</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.174470780419122</v>
+        <v>-1.271206060566459</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.464125714168677</v>
+        <v>-1.599424462787881</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.495837158327694</v>
+        <v>-0.5405330052961483</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.293899504372496</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.055851125418781</v>
+        <v>-1.146807394362262</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.450101990807449</v>
+        <v>-1.572345037825024</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4943985048508251</v>
+        <v>-0.5498307362456715</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3481991370854257</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8799702288046416</v>
+        <v>-0.9637277212968545</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.421361188662059</v>
+        <v>-1.535755389331269</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4810917471993492</v>
+        <v>-0.5360549208960479</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.401812936318281</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7345198438626089</v>
+        <v>-0.8176500897349835</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.397351887995299</v>
+        <v>-1.49879978139181</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4529042127750964</v>
+        <v>-0.502092310315743</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.4535298266627395</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5392517537314095</v>
+        <v>-0.602165298009798</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.397732013613093</v>
+        <v>-1.490826587532862</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4108007752994243</v>
+        <v>-0.4523517320635199</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.5029180766795225</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3356303441234674</v>
+        <v>-0.3914592283368815</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.324493690908533</v>
+        <v>-1.390347502905511</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3293374156765072</v>
+        <v>-0.3688657578697314</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.5492275696786105</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.153297543131117</v>
+        <v>-0.1980421846923317</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.309616849183559</v>
+        <v>-1.352656041026845</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3077025228542293</v>
+        <v>-0.3455529606641469</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5907733593349989</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03493625554698964</v>
+        <v>-0.004067938278841402</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.195056589497053</v>
+        <v>-1.227669478680842</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2740059215054241</v>
+        <v>-0.3196540500422654</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.6259226423274225</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2878575180531907</v>
+        <v>0.2606631896944787</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.099486870509039</v>
+        <v>-1.119330529571277</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2087407926598124</v>
+        <v>-0.2579005578562755</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.6528515019882746</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5127612402002394</v>
+        <v>0.4939532857198175</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9814496025835789</v>
+        <v>-0.9872333358447983</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.149230277721676</v>
+        <v>-0.1923159031290398</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6694888011052449</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6842238651408873</v>
+        <v>0.6633082990570437</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8357465875725775</v>
+        <v>-0.8378471160899533</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1253476855941807</v>
+        <v>-0.1695398464438188</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6744455825763024</v>
       </c>
       <c r="E89" t="n">
-        <v>0.855817133668603</v>
+        <v>0.8456977647377609</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7188740937968802</v>
+        <v>-0.7242304808666664</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07418734209454445</v>
+        <v>-0.1099915550467712</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.6657218933009432</v>
       </c>
       <c r="E90" t="n">
-        <v>0.986035735573809</v>
+        <v>0.9833567550293552</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5477246986613712</v>
+        <v>-0.5341755420652149</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05629231870447692</v>
+        <v>-0.0917234891249554</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6421498997389701</v>
       </c>
       <c r="E91" t="n">
-        <v>1.101463279796152</v>
+        <v>1.105025285067656</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3531869534024553</v>
+        <v>-0.3383046026105572</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07692298732736504</v>
+        <v>-0.1137267024216177</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.6028384063733411</v>
       </c>
       <c r="E92" t="n">
-        <v>1.156989952338277</v>
+        <v>1.165544746262546</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2131275839508774</v>
+        <v>-0.1989488197062008</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03907569755569</v>
+        <v>-0.07580071169387764</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5488017120264281</v>
       </c>
       <c r="E93" t="n">
-        <v>1.192266868884868</v>
+        <v>1.193488307722997</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1132387564940145</v>
+        <v>-0.09642980629764446</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04072212155657052</v>
+        <v>-0.07330589138661606</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.4834529901174869</v>
       </c>
       <c r="E94" t="n">
-        <v>1.167529584374506</v>
+        <v>1.180604961215151</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02937209795319171</v>
+        <v>0.05587385789853139</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.008908047076841017</v>
+        <v>-0.035861550509994</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4121681763244845</v>
       </c>
       <c r="E95" t="n">
-        <v>1.171913227627329</v>
+        <v>1.19223381448332</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1062220075315765</v>
+        <v>0.138967901331116</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.04491530849571555</v>
+        <v>-0.07126911064365296</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.3408069279243929</v>
       </c>
       <c r="E96" t="n">
-        <v>1.091310856463763</v>
+        <v>1.111418950738379</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1826610981193018</v>
+        <v>0.2226962744695848</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07827349573344103</v>
+        <v>-0.09664387289814136</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2767819948454218</v>
       </c>
       <c r="E97" t="n">
-        <v>1.038379741452663</v>
+        <v>1.062243445350703</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2278212807285398</v>
+        <v>0.2712815226867731</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04469966787609736</v>
+        <v>-0.06519024879718971</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2233030484342746</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9269911302955776</v>
+        <v>0.9426416024186702</v>
       </c>
       <c r="F98" t="n">
-        <v>0.210485034126534</v>
+        <v>0.2525506951432949</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1034452095212816</v>
+        <v>-0.1212206074581303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1816229231540941</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8884434020149237</v>
+        <v>0.9104796697131333</v>
       </c>
       <c r="F99" t="n">
-        <v>0.198256479573149</v>
+        <v>0.2304231343360499</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09124970936944389</v>
+        <v>-0.1078304267932253</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1465011435394742</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8368958498114475</v>
+        <v>0.8523259592575582</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1890705039812382</v>
+        <v>0.2244749160766546</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09315427250621773</v>
+        <v>-0.1089432583119849</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1164194964403317</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7774451475999204</v>
+        <v>0.792477030208342</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1723056263202646</v>
+        <v>0.1981714825405988</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08159152804114288</v>
+        <v>-0.09587102950958272</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.08086885468202468</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7666206181027356</v>
+        <v>0.7819295280765062</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1498742798226085</v>
+        <v>0.1682934515800691</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06805653761707826</v>
+        <v>-0.07947604634211475</v>
       </c>
     </row>
   </sheetData>
